--- a/正規化練習-解.xlsx
+++ b/正規化練習-解.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="16290" windowHeight="7110"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="16290" windowHeight="7110" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="原始資料" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="66">
   <si>
     <t>訂單序號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,10 +33,6 @@
   </si>
   <si>
     <t>送貨日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客戶代號</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -257,6 +253,61 @@
   </si>
   <si>
     <t>電漿電視</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>訂單序號(int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>訂單序號(int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>訂貨日期(date)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送貨日期(date)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客戶代號(nvarchar(5))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客戶代號(nvarchar(5))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>產品代號(nvarchar(5))</t>
+  </si>
+  <si>
+    <t>客戶名稱(nvarchar(20))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客戶地址(nvarchar(50))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>產品名稱(nvarchar(50))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>單價(int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庫存量(int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>訂購數量(int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>產品代號(nvarchar(5))</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -640,7 +691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -665,25 +716,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="33" x14ac:dyDescent="0.25">
@@ -697,25 +748,25 @@
         <v>37600</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.25">
@@ -729,25 +780,25 @@
         <v>37600</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="49.5" x14ac:dyDescent="0.25">
@@ -761,25 +812,25 @@
         <v>37603</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="33" x14ac:dyDescent="0.25">
@@ -793,25 +844,25 @@
         <v>37606</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -825,19 +876,19 @@
         <v>37607</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G6" s="2">
         <v>20</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I6" s="2">
         <v>200000</v>
@@ -879,25 +930,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -911,19 +962,19 @@
         <v>37600</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G2" s="4">
         <v>20</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I2" s="4">
         <v>6000</v>
@@ -943,19 +994,19 @@
         <v>37600</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G3" s="4">
         <v>5</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I3" s="4">
         <v>36000</v>
@@ -975,19 +1026,19 @@
         <v>37600</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G4" s="4">
         <v>30</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I4" s="4">
         <v>6000</v>
@@ -1007,19 +1058,19 @@
         <v>37600</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G5" s="4">
         <v>100</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I5" s="4">
         <v>2000</v>
@@ -1039,19 +1090,19 @@
         <v>37603</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G6" s="4">
         <v>200</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I6" s="4">
         <v>2000</v>
@@ -1071,19 +1122,19 @@
         <v>37603</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G7" s="4">
         <v>200</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I7" s="4">
         <v>6000</v>
@@ -1103,19 +1154,19 @@
         <v>37603</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G8" s="4">
         <v>10</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I8" s="4">
         <v>36000</v>
@@ -1135,19 +1186,19 @@
         <v>37606</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G9" s="4">
         <v>10</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I9" s="4">
         <v>50000</v>
@@ -1167,19 +1218,19 @@
         <v>37606</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G10" s="4">
         <v>15</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I10" s="4">
         <v>200000</v>
@@ -1199,19 +1250,19 @@
         <v>37607</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G11" s="2">
         <v>20</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I11" s="2">
         <v>200000</v>
@@ -1253,10 +1304,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1270,10 +1321,10 @@
         <v>37600</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1287,10 +1338,10 @@
         <v>37600</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1304,10 +1355,10 @@
         <v>37603</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1321,10 +1372,10 @@
         <v>37606</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1338,41 +1389,41 @@
         <v>37607</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="C10" s="4">
         <v>6000</v>
@@ -1384,7 +1435,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H10" s="4">
         <v>20</v>
@@ -1392,10 +1443,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="C11" s="4">
         <v>36000</v>
@@ -1407,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H11" s="4">
         <v>5</v>
@@ -1415,10 +1466,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="C12" s="4">
         <v>2000</v>
@@ -1430,7 +1481,7 @@
         <v>2</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H12" s="4">
         <v>30</v>
@@ -1438,10 +1489,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="C13" s="4">
         <v>50000</v>
@@ -1453,7 +1504,7 @@
         <v>2</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" s="4">
         <v>100</v>
@@ -1461,10 +1512,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="C14" s="4">
         <v>200000</v>
@@ -1476,7 +1527,7 @@
         <v>3</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" s="4">
         <v>200</v>
@@ -1487,7 +1538,7 @@
         <v>3</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H15" s="4">
         <v>200</v>
@@ -1498,7 +1549,7 @@
         <v>3</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H16" s="4">
         <v>10</v>
@@ -1509,7 +1560,7 @@
         <v>4</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H17" s="4">
         <v>10</v>
@@ -1520,7 +1571,7 @@
         <v>4</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H18" s="4">
         <v>15</v>
@@ -1531,7 +1582,7 @@
         <v>5</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H19" s="2">
         <v>20</v>
@@ -1547,38 +1598,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K26" sqref="A1:K26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1592,16 +1647,16 @@
         <v>37600</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1615,16 +1670,16 @@
         <v>37600</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1638,16 +1693,16 @@
         <v>37603</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1661,7 +1716,7 @@
         <v>37606</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1675,38 +1730,38 @@
         <v>37607</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="C10" s="4">
         <v>6000</v>
@@ -1718,7 +1773,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H10" s="4">
         <v>20</v>
@@ -1726,10 +1781,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="C11" s="4">
         <v>36000</v>
@@ -1741,7 +1796,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H11" s="4">
         <v>5</v>
@@ -1749,10 +1804,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="C12" s="4">
         <v>2000</v>
@@ -1764,7 +1819,7 @@
         <v>2</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H12" s="4">
         <v>30</v>
@@ -1772,10 +1827,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="C13" s="4">
         <v>50000</v>
@@ -1787,7 +1842,7 @@
         <v>2</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" s="4">
         <v>100</v>
@@ -1795,10 +1850,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" s="4">
         <v>200000</v>
@@ -1810,7 +1865,7 @@
         <v>3</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" s="4">
         <v>200</v>
@@ -1821,7 +1876,7 @@
         <v>3</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H15" s="4">
         <v>200</v>
@@ -1832,7 +1887,7 @@
         <v>3</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H16" s="4">
         <v>10</v>
@@ -1843,7 +1898,7 @@
         <v>4</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H17" s="4">
         <v>10</v>
@@ -1854,7 +1909,7 @@
         <v>4</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H18" s="4">
         <v>15</v>
@@ -1865,7 +1920,7 @@
         <v>5</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H19" s="2">
         <v>20</v>
@@ -1874,5 +1929,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>